--- a/STOXX50/geo.xlsx
+++ b/STOXX50/geo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,26 @@
           <t>其他</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>瑞士</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>北欧国家</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>其他欧洲国家</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -517,6 +537,86 @@
       </c>
       <c r="J2" t="n">
         <v>3</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>STOXX200</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>STOXX600</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/STOXX50/geo.xlsx
+++ b/STOXX50/geo.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,11 +496,6 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>北欧国家</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>其他欧洲国家</t>
         </is>
       </c>
@@ -541,12 +536,11 @@
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>STOXX200</t>
+          <t>STOXX600</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -569,54 +563,13 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
       <c r="L3" t="n">
         <v>12.5</v>
       </c>
       <c r="M3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>STOXX600</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="C4" t="n">
         <v>12.5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
